--- a/FastTMtool_all_required_packages.xlsx
+++ b/FastTMtool_all_required_packages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kostas charm\Dropbox\PC\PHD\NLP_SHINY_R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zapfl\Dropbox\PC\PHD\NLP_SHINY_R\Extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6967BD77-2F3F-4B8F-BF5E-273EDD841D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701D36A5-DD8A-47EC-A211-99527AB53DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>new_values</t>
   </si>
@@ -155,6 +155,21 @@
   </si>
   <si>
     <t>nnet</t>
+  </si>
+  <si>
+    <t>philentropy</t>
+  </si>
+  <si>
+    <t>RcppML</t>
+  </si>
+  <si>
+    <t>ggrepel</t>
+  </si>
+  <si>
+    <t>concaveman</t>
+  </si>
+  <si>
+    <t>ggforce</t>
   </si>
 </sst>
 </file>
@@ -541,245 +556,271 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A46"/>
+  <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>43</v>
       </c>
     </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/FastTMtool_all_required_packages.xlsx
+++ b/FastTMtool_all_required_packages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zapfl\Dropbox\PC\PHD\NLP_SHINY_R\Extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701D36A5-DD8A-47EC-A211-99527AB53DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378B177C-08C4-464F-8308-01247203E267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5292" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>new_values</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>ggforce</t>
+  </si>
+  <si>
+    <t>shinythemes</t>
   </si>
 </sst>
 </file>
@@ -236,9 +239,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -276,9 +279,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,26 +314,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,26 +349,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -556,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A51"/>
+  <dimension ref="A1:A52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -819,6 +788,11 @@
         <v>49</v>
       </c>
     </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/FastTMtool_all_required_packages.xlsx
+++ b/FastTMtool_all_required_packages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zapfl\Dropbox\PC\PHD\NLP_SHINY_R\Extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378B177C-08C4-464F-8308-01247203E267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD1F64A-64C9-4275-AD07-8F94664A57BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5292" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>new_values</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>shinythemes</t>
+  </si>
+  <si>
+    <t>ss</t>
   </si>
 </sst>
 </file>
@@ -525,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A52"/>
+  <dimension ref="A1:A53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -793,6 +796,11 @@
         <v>50</v>
       </c>
     </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/FastTMtool_all_required_packages.xlsx
+++ b/FastTMtool_all_required_packages.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zapfl\Dropbox\PC\PHD\NLP_SHINY_R\Extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD1F64A-64C9-4275-AD07-8F94664A57BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF62592A-8597-45A3-B1C7-53384CD1EEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>new_values</t>
   </si>
@@ -176,6 +176,15 @@
   </si>
   <si>
     <t>ss</t>
+  </si>
+  <si>
+    <t>ggthemes</t>
+  </si>
+  <si>
+    <t>hrbrthemes</t>
+  </si>
+  <si>
+    <t>plotly</t>
   </si>
 </sst>
 </file>
@@ -528,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A53"/>
+  <dimension ref="A1:A57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -801,6 +810,26 @@
         <v>51</v>
       </c>
     </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/FastTMtool_all_required_packages.xlsx
+++ b/FastTMtool_all_required_packages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zapfl\Dropbox\PC\PHD\NLP_SHINY_R\Extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF62592A-8597-45A3-B1C7-53384CD1EEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D89884D-F8D4-46C2-8E09-4ADE3790AE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>new_values</t>
   </si>
@@ -185,13 +185,16 @@
   </si>
   <si>
     <t>plotly</t>
+  </si>
+  <si>
+    <t>tokenizers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +210,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="161"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -216,7 +227,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -224,14 +235,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -537,297 +582,336 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A57"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
